--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="137">
   <si>
     <t>Result</t>
   </si>
@@ -279,6 +279,174 @@
   </si>
   <si>
     <t>Fri Sep 29 15:46:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:20:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:20:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:20:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:20:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:20:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:21:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:22:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:23:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:24:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:24:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:24:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:24:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:24:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:29:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:30:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:30:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:30:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:30:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:30:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:31:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:32:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:32 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -691,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -708,7 +876,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -725,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -742,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -762,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -782,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -799,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -816,7 +984,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -833,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -850,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -870,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -890,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -907,7 +1075,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -924,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -944,7 +1112,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -964,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -984,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1004,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1021,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1038,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1058,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1098,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1118,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1135,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1155,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1175,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1195,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="165">
   <si>
     <t>Result</t>
   </si>
@@ -447,6 +447,90 @@
   </si>
   <si>
     <t>Mon Oct 02 16:33:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:16:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:17:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:17:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:17:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:17:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:17:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:18:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:19:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:24 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -859,7 +943,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -876,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -893,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -910,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -930,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -950,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -967,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -984,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1001,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1018,7 +1102,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1038,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1058,7 +1142,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1075,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1092,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1112,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1132,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1152,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1172,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1189,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1206,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1226,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1246,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1266,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1286,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1303,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1323,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1343,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1363,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="193">
   <si>
     <t>Result</t>
   </si>
@@ -531,6 +531,90 @@
   </si>
   <si>
     <t>Fri Oct 06 11:20:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:33:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:33:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:33:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:33:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:33:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:34:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:35:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:36:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:02 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -960,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -977,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -994,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1014,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1034,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1051,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1068,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1085,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1102,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1122,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1142,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1159,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1176,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1216,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1236,7 +1320,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1273,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1290,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1310,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1330,7 +1414,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1350,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1370,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1387,7 +1471,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1407,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1427,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1447,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="272">
   <si>
     <t>Result</t>
   </si>
@@ -615,6 +615,243 @@
   </si>
   <si>
     <t>Mon Oct 09 22:37:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:42:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:43:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:43:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:43:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:43:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:44:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:45:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:46:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:46:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:46:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:48:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:49:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:50:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:51:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:52:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:52:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:53:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:54:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:55:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:09:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:09:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:10:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:11:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:12:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:13:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:14:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:20 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1264,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1044,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1061,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1098,7 +1335,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1118,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1135,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1152,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1169,7 +1406,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1186,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1206,7 +1443,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1226,7 +1463,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1243,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1280,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1300,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1320,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1340,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1357,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1374,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1394,7 +1631,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1414,7 +1651,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1434,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1454,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1471,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1491,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1511,7 +1748,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1531,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1556B0D-8D26-442B-9495-7AEA8E049318}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{542EE46A-70B7-4E0F-B398-D509FB09112E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
+    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="75">
   <si>
     <t>Result</t>
   </si>
@@ -104,754 +104,163 @@
     <t>FEINSSN</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:39:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:40:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:41:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:42:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:31:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:31:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:31:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:31:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:32:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:33:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:34:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:35:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:41:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:42:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:42:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:42:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:42:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:42:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:43:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:44:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:44:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:44:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:44:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:44:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:45:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:46:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:46:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:46:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:46:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:46:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:20:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:20:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:20:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:20:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:20:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:21:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:22:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:23:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:24:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:24:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:24:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:24:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:24:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:29:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:30:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:30:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:30:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:30:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:30:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:31:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:32:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:33:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:33:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:33:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:33:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:16:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:17:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:17:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:17:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:17:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:17:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:18:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:19:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:20:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:20:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:20:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:33:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:33:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:33:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:33:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:33:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:34:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:35:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:36:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:37:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:42:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:43:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:43:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:43:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:43:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:44:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:45:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:46:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:46:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:46:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:48:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:49:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:50:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:51:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:52:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:52:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:53:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:54:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:55:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:09:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:09:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:10:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:11:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:12:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:13:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:14:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:20 EDT 2023</t>
+    <t>Thu Dec 07 21:31:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:31:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:31:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:31:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:31:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:32:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:33:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:33 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +634,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C19" sqref="C19:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,10 +670,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1278,10 +687,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1295,10 +704,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1312,10 +721,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1332,10 +741,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1352,10 +761,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1369,10 +778,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1386,10 +795,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1403,10 +812,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1420,10 +829,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1440,10 +849,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1460,10 +869,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1477,10 +886,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1494,10 +903,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1514,10 +923,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1534,10 +943,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1554,10 +963,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1574,13 +983,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1591,13 +1000,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1608,13 +1017,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1628,13 +1037,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1648,13 +1057,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -1668,13 +1077,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -1688,10 +1097,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1705,10 +1114,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1725,10 +1134,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1745,10 +1154,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1765,10 +1174,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
   <si>
     <t>Result</t>
   </si>
@@ -261,6 +261,72 @@
   </si>
   <si>
     <t>Thu Dec 07 21:34:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:43:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:44:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:45:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:45:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:45:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:45:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:45:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:39 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -673,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -690,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -707,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -724,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -744,7 +810,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -764,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -781,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -798,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -815,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -832,7 +898,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -852,7 +918,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -872,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -889,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -906,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -926,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -946,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -966,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1100,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1117,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1137,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1157,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1177,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{542EE46A-70B7-4E0F-B398-D509FB09112E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3228D40C-C371-4541-B01A-6C4513FF0B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2460"/>
+    <workbookView xWindow="1170" yWindow="2280" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="61">
   <si>
     <t>Result</t>
   </si>
@@ -107,57 +107,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:39:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:39:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:40:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:36 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:41:46 EDT 2023</t>
   </si>
   <si>
@@ -176,93 +125,9 @@
     <t>Wed Nov 01 15:42:33 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:42:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:43:20 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:32:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:33:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:34:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:34:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:34:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:34:33 EST 2023</t>
-  </si>
-  <si>
     <t>Wed Dec 20 12:43:08 EST 2023</t>
   </si>
   <si>
@@ -327,13 +192,39 @@
   </si>
   <si>
     <t>Wed Dec 20 12:46:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,19 +267,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,10 +296,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -443,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,21 +497,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -637,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -689,29 +580,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -756,7 +647,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -773,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -790,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -810,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -830,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -847,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -864,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -881,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -898,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -918,7 +809,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -938,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -955,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -972,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -992,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1012,7 +903,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1032,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1052,10 +943,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1069,10 +960,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1086,10 +977,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1106,10 +997,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1126,10 +1017,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -1146,10 +1037,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -1166,7 +1057,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1183,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1203,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1223,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1243,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1258,9 +1149,240 @@
         <v>4</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3228D40C-C371-4541-B01A-6C4513FF0B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AB49A4E7-3041-46CE-966B-560C301A0D7E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2280" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-27750" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="3105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="122">
   <si>
     <t>Result</t>
   </si>
@@ -128,78 +128,9 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Wed Dec 20 12:43:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:43:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:43:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:43:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:43:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:43:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:44:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:45:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:45:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:45:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:45:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:45:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:39 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
-    <t>Estate Tax</t>
-  </si>
-  <si>
     <t>Motor Fuel Tax</t>
   </si>
   <si>
@@ -219,12 +150,265 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:43:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:44:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:45:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:46:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:46:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:46:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:46:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:46:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:47:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:48:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:14 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:10:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:11:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:12:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:13:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:14:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:15:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:19 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,19 +451,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,10 +480,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -334,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -386,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,21 +681,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -528,7 +712,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -580,29 +764,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +814,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -647,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -664,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -681,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -701,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -721,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -738,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -755,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -772,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -789,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -809,7 +993,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -829,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -846,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -863,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -883,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -903,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -923,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1057,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1074,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1094,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1114,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1134,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1150,6 +1334,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1157,10 +1347,16 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1168,10 +1364,16 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1179,10 +1381,16 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1190,10 +1398,19 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,10 +1418,16 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,10 +1435,16 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,21 +1452,33 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1245,10 +1486,16 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,10 +1503,16 @@
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1267,10 +1520,16 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1278,10 +1537,16 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1289,10 +1554,16 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1300,10 +1571,16 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,10 +1588,16 @@
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,10 +1605,19 @@
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1333,10 +1625,16 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1344,10 +1642,16 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1355,34 +1659,12 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="163">
   <si>
     <t>Result</t>
   </si>
@@ -402,6 +402,129 @@
   </si>
   <si>
     <t>Sun Jan 14 16:16:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:23:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:24:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:26:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:27:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:28:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:29 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -814,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -831,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -848,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -865,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -885,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -905,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -922,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -939,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -956,7 +1079,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -973,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -993,7 +1116,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1013,7 +1136,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1030,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1047,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1067,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1087,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1107,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1241,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1258,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1278,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1298,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1318,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1338,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1355,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1372,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1389,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1409,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1426,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1443,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1460,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1477,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1494,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1511,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1528,7 +1651,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1545,7 +1668,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1562,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1579,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1596,7 +1719,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1616,7 +1739,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1633,7 +1756,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1650,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="204">
   <si>
     <t>Result</t>
   </si>
@@ -525,6 +525,129 @@
   </si>
   <si>
     <t>Thu Jan 25 17:29:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:01:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:01:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:01:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:01:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:01:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:02:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:03:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:04:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:05:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:06:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:07:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:07:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:07:40 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1060,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -954,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -971,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -988,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1008,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1028,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1045,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1062,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1079,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1096,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1116,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1136,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1153,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1170,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1190,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1210,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1230,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1364,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1381,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1401,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1421,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1441,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1461,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1478,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1495,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1512,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1532,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1549,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1566,7 +1689,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1583,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1600,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1617,7 +1740,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1634,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1651,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1668,7 +1791,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1685,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1702,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1719,7 +1842,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1739,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1756,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1773,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="245">
   <si>
     <t>Result</t>
   </si>
@@ -648,6 +648,129 @@
   </si>
   <si>
     <t>Sat Feb 03 23:07:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:31:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:32:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:33:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:34:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:35:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:36:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:28 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1077,7 +1200,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1094,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1131,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1151,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1168,7 +1291,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1185,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1202,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1219,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1239,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1259,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1276,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1293,7 +1416,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1313,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1333,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1353,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1487,7 +1610,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1504,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1524,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1544,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1564,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1584,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1601,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1618,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1635,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1655,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1672,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1689,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1723,7 +1846,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1740,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1757,7 +1880,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1774,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1791,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1808,7 +1931,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1825,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1842,7 +1965,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1862,7 +1985,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1879,7 +2002,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1896,7 +2019,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="286">
   <si>
     <t>Result</t>
   </si>
@@ -771,6 +771,129 @@
   </si>
   <si>
     <t>Sat Feb 17 22:37:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:54:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:54:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:55:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:55:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:56:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:56:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:57:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:57:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:58:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:58:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:59:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:59:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:59:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:00:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:01:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:01:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:01:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:02:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:03:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:03:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:04:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:05:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:05:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:05:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:06:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:06:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:07:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:08:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:08:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:09:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:09:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:10:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:10:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:11:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:12:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:12:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:13:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:13:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:14:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:14:57 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1200,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1217,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1234,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1254,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1308,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1448,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1342,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1362,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1382,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1399,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1416,7 +1539,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1436,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1456,7 +1579,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1476,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1610,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1627,7 +1750,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1647,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1667,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1687,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1707,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1724,7 +1847,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1741,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1758,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1778,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1795,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1812,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1829,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1846,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1863,7 +1986,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1880,7 +2003,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1897,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1914,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1931,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1948,7 +2071,7 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1965,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1985,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2002,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2019,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AB49A4E7-3041-46CE-966B-560C301A0D7E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76905A-B937-4BF9-9854-0271A2B402BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-27750" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="3105"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
   <si>
     <t>Result</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Wed Nov 01 15:42:33 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -150,627 +147,6 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:43:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:44:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:45:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:46:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:46:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:46:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:46:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:46:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:47:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:48:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:14 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:10:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:11:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:12:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:13:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:14:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:15:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:23:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:24:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:25:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:26:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:27:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:28:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:01:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:01:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:01:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:01:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:01:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:02:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:03:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:04:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:05:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:06:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:07:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:07:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:07:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:31:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:32:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:33:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:34:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:35:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:36:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:28 EST 2024</t>
   </si>
   <si>
     <t>Thu Mar 07 23:54:01 EST 2024</t>
@@ -900,7 +276,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,19 +318,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -972,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1010,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1062,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1173,21 +548,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1204,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1256,29 +631,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1323,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1340,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1357,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1377,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1397,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1414,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1431,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1448,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1465,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1485,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1505,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1522,7 +897,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1539,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1559,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1579,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1599,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1622,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1639,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1656,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1676,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -1696,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -1716,7 +1091,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -1733,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1750,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1770,7 +1145,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1790,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1810,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1830,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1839,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1856,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1873,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1890,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
@@ -1901,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1910,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1927,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1944,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1961,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1986,7 +1361,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2003,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2020,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2029,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2046,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2063,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,7 +1446,7 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2088,7 +1463,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2097,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>4</v>
@@ -2108,7 +1483,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2117,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2134,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -2155,8 +1530,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76905A-B937-4BF9-9854-0271A2B402BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FB71822D-396F-4B1D-8F3E-89474898E342}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="345"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>Result</t>
   </si>
@@ -270,12 +270,34 @@
   </si>
   <si>
     <t>Fri Mar 08 00:14:57 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:02:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:02:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:30 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,19 +340,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,10 +369,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -385,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,21 +570,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -579,7 +601,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -631,29 +653,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,9 +705,6 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,9 +719,6 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -717,9 +733,6 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,9 +747,6 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,9 +764,6 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -774,9 +781,6 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,9 +795,6 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,9 +809,6 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,9 +823,6 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,9 +837,6 @@
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,9 +854,6 @@
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,9 +871,6 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
@@ -899,9 +885,6 @@
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,9 +899,6 @@
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,9 +916,6 @@
       <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,9 +933,6 @@
       <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,9 +950,6 @@
       <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1011,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1028,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1048,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1068,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1088,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1110,9 +1081,6 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,9 +1095,6 @@
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,9 +1112,6 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,9 +1129,6 @@
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,9 +1146,6 @@
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,9 +1163,6 @@
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1224,9 +1177,6 @@
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1241,9 +1191,6 @@
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1258,9 +1205,6 @@
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,9 +1222,6 @@
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1236,6 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1312,9 +1250,6 @@
       <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1329,9 +1264,6 @@
       <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1346,9 +1278,6 @@
       <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,9 +1292,6 @@
       <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1380,9 +1306,6 @@
       <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1397,9 +1320,6 @@
       <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1414,9 +1334,6 @@
       <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,9 +1348,6 @@
       <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1448,9 +1362,6 @@
       <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1465,9 +1376,6 @@
       <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1485,9 +1393,6 @@
       <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1502,9 +1407,6 @@
       <c r="B47" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1519,9 +1421,6 @@
       <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1530,8 +1429,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FB71822D-396F-4B1D-8F3E-89474898E342}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEEAD4-5DD3-45E8-9BB3-8540C7E2494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="345"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
   <si>
     <t>Result</t>
   </si>
@@ -56,9 +56,6 @@
     <t>PaymentType</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -107,24 +104,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:41:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:41:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:42:33 EDT 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t>Fri Mar 08 00:14:57 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:02:42 EDT 2024</t>
   </si>
   <si>
@@ -291,13 +267,15 @@
   </si>
   <si>
     <t>Wed Mar 20 23:03:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,19 +318,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -369,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -407,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -459,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,21 +548,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -601,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -653,29 +631,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,63 +673,75 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -759,16 +749,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -776,72 +769,87 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
@@ -849,16 +857,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -866,44 +877,53 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -911,16 +931,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -928,16 +951,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -945,16 +971,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -962,53 +991,53 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
@@ -1016,19 +1045,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>4</v>
@@ -1036,19 +1065,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>4</v>
@@ -1056,19 +1085,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>4</v>
@@ -1076,30 +1105,36 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>4</v>
@@ -1107,16 +1142,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1124,16 +1162,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
@@ -1141,16 +1182,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>4</v>
@@ -1158,58 +1202,70 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
@@ -1217,170 +1273,206 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>4</v>
@@ -1388,49 +1480,58 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEEAD4-5DD3-45E8-9BB3-8540C7E2494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{94BEEAD4-5DD3-45E8-9BB3-8540C7E2494C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="126">
   <si>
     <t>Result</t>
   </si>
@@ -270,12 +270,157 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:38:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:39:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:40:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:41:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:42:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:43:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:44:58 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,19 +463,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,10 +492,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -385,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,21 +693,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -579,7 +724,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -631,15 +776,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C48"/>
@@ -647,13 +792,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -698,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -715,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -732,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -752,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -772,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -789,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -806,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -823,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -840,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -860,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -880,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -897,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -914,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -934,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -954,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -974,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -994,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1011,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1028,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1048,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1068,7 +1213,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1088,7 +1233,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1108,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1125,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1165,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1185,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1205,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1222,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1239,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1276,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1293,7 +1438,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1310,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1327,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1344,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1361,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1378,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1395,7 +1540,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1412,7 +1557,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1429,7 +1574,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1446,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1463,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1483,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1500,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1517,7 +1662,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1530,8 +1675,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="173">
   <si>
     <t>Result</t>
   </si>
@@ -414,6 +414,147 @@
   </si>
   <si>
     <t>Mon Apr 08 17:44:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:34:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:35:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:36:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:37:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:38:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:38:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:38:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:38:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:38:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:39:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:40:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:41:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:47 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -826,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -843,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -860,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -877,7 +1018,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -897,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -917,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -934,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -951,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -968,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -985,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1005,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1025,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1042,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1059,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1079,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1099,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1119,7 +1260,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1139,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1156,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1173,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1193,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1233,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1253,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1270,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1290,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1310,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1330,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1350,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1367,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1384,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1401,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1421,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1438,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1455,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1472,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1489,7 +1630,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1506,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1523,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1540,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1557,7 +1698,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1574,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1591,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1608,7 +1749,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1628,7 +1769,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1645,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1662,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="314">
   <si>
     <t>Result</t>
   </si>
@@ -555,6 +555,429 @@
   </si>
   <si>
     <t>Sat Oct 12 23:42:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:26:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:26:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:26:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:26:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:27:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:28:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:28:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:28:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:28:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:28:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:29:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:30:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:30:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:30:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:30:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:30:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:31:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:32:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:33:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:33:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:33:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:33:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:33:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:25:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:26:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:27:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:28:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:29:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:30:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:31:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:35:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:35:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:35:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:36:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:37:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:38:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:39:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:40:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:41:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:42:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:06 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -984,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1001,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1018,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1038,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1058,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1075,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1092,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1109,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1126,7 +1549,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1146,7 +1569,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1166,7 +1589,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1183,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1200,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1220,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1240,7 +1663,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1280,7 +1703,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1297,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1314,7 +1737,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1334,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1354,7 +1777,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1374,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1394,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1411,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1431,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1451,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1471,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1491,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1508,7 +1931,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1525,7 +1948,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1542,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1562,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1579,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1596,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1613,7 +2036,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1630,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1647,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1664,7 +2087,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1681,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1698,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1715,7 +2138,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1732,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1749,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1769,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1786,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1803,7 +2226,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="361">
   <si>
     <t>Result</t>
   </si>
@@ -978,6 +978,147 @@
   </si>
   <si>
     <t>Fri Oct 25 11:43:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:11:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:11:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:11:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:11:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:11:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:12:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:13:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:13:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:13:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:13:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:14:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:14:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:14:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:14:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:14:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:15:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:16:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:16:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:16:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:16:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:16:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:17:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:17:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:17:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:17:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:17:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:18:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:18:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:18:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:18:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:18:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:19:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:19:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:19:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:19:33 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1531,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1407,7 +1548,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1424,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1441,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1461,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1481,7 +1622,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1498,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1515,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1532,7 +1673,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1549,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1569,7 +1710,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1589,7 +1730,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1606,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1623,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1643,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1663,7 +1804,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1683,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1703,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1720,7 +1861,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1737,7 +1878,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1757,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1777,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1797,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1817,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1834,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1854,7 +1995,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1874,7 +2015,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1894,7 +2035,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1914,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1931,7 +2072,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1948,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1965,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1985,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -2002,7 +2143,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -2019,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -2036,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2053,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -2070,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2087,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2104,7 +2245,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2121,7 +2262,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2138,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2155,7 +2296,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2172,7 +2313,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2192,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2209,7 +2350,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2226,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="408">
   <si>
     <t>Result</t>
   </si>
@@ -1119,6 +1119,147 @@
   </si>
   <si>
     <t>Thu Nov 07 16:19:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:35:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:36:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:37:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:37:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:37:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:37:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:37:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:38:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:39:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:40:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:41:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:06 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1548,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1565,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1582,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1602,7 +1743,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1622,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1639,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1656,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1673,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1690,7 +1831,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1710,7 +1851,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1730,7 +1871,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1747,7 +1888,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1764,7 +1905,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1784,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1804,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1824,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1844,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1861,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1878,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1898,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1918,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1938,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1958,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1975,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1995,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -2015,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2035,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -2055,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -2072,7 +2213,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -2089,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2106,7 +2247,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -2126,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -2143,7 +2284,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -2160,7 +2301,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -2177,7 +2318,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2194,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -2211,7 +2352,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2228,7 +2369,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2245,7 +2386,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2262,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2279,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2296,7 +2437,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2313,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2333,7 +2474,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2350,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2367,7 +2508,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="456">
   <si>
     <t>Result</t>
   </si>
@@ -1260,6 +1260,150 @@
   </si>
   <si>
     <t>Tue Nov 12 17:42:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:41:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:42:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:43:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:44:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:45:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:46:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:47:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:35 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1689,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1723,7 +1867,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1743,7 +1887,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1763,7 +1907,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1780,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1797,7 +1941,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1814,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1831,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1851,7 +1995,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1871,7 +2015,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1888,7 +2032,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1905,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1925,7 +2069,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1945,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1965,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1985,7 +2129,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -2002,7 +2146,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -2019,7 +2163,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -2039,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -2059,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -2079,7 +2223,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -2099,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -2116,7 +2260,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -2136,7 +2280,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -2156,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2176,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -2196,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -2213,7 +2357,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -2230,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2247,7 +2391,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -2267,7 +2411,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -2281,10 +2425,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -2298,10 +2442,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -2318,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2335,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -2352,7 +2496,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2369,7 +2513,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2386,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2403,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2420,7 +2564,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2437,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2454,7 +2598,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2474,7 +2618,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2488,10 +2632,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2508,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{94BEEAD4-5DD3-45E8-9BB3-8540C7E2494C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8CAC2-07D1-4765-B6A0-45DC6ACF5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="1155"/>
+    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="78">
   <si>
     <t>Result</t>
   </si>
@@ -128,1140 +128,9 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Thu Mar 07 23:54:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:54:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:55:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:55:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:56:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:56:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:57:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:57:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:58:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:58:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:59:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:59:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:59:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:00:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:01:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:01:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:01:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:02:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:03:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:03:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:04:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:05:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:05:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:05:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:06:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:06:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:07:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:08:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:08:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:09:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:09:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:10:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:10:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:11:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:12:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:12:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:13:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:13:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:14:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:14:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:02:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:02:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:30 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:38:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:39:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:40:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:41:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:42:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:43:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:44:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:34:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:35:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:36:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:37:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:38:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:38:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:38:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:38:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:38:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:39:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:40:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:41:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:26:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:26:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:26:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:26:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:27:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:28:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:28:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:28:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:28:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:28:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:29:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:30:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:30:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:30:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:30:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:30:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:31:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:32:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:33:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:33:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:33:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:33:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:33:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:25:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:26:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:27:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:28:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:29:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:30:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:31:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:35:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:35:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:35:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:36:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:37:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:38:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:39:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:40:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:41:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:42:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:11:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:11:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:11:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:11:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:11:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:12:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:13:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:13:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:13:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:13:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:14:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:14:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:14:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:14:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:14:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:15:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:16:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:16:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:16:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:16:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:16:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:17:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:17:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:17:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:17:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:17:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:18:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:18:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:18:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:18:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:18:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:19:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:19:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:19:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:19:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:35:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:36:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:37:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:37:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:37:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:37:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:37:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:38:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:39:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:40:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:41:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:06 EST 2024</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:41:02 EST 2025</t>
   </si>
   <si>
@@ -1361,15 +230,6 @@
     <t>Tue Jan 28 21:46:17 EST 2025</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:36 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:46:46 EST 2025</t>
   </si>
   <si>
@@ -1400,17 +260,22 @@
     <t>Tue Jan 28 21:48:15 EST 2025</t>
   </si>
   <si>
-    <t>Tue Jan 28 21:48:25 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:48:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:11:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:12:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:12:20 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1453,19 +318,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1478,14 +343,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1518,9 +383,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1572,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1624,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1683,21 +548,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1714,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1766,29 +631,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C48"/>
+      <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,13 +681,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1833,13 +698,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1850,13 +715,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1867,13 +732,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1887,13 +752,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1907,13 +772,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1924,13 +789,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1941,13 +806,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -1958,13 +823,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1975,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1995,13 +860,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -2015,7 +880,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2032,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -2049,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -2069,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -2089,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -2109,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -2129,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -2146,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>426</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -2163,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -2183,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -2203,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>429</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -2223,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -2243,7 +1108,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -2260,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -2280,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -2300,7 +1165,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>434</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2320,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -2340,13 +1205,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>22</v>
@@ -2357,13 +1222,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>437</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>23</v>
@@ -2374,13 +1239,13 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>24</v>
@@ -2391,13 +1256,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>439</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -2411,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>440</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>26</v>
@@ -2425,44 +1290,50 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>444</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2479,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>445</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -2496,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2513,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>447</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2530,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>448</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2547,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>449</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2564,7 +1435,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2581,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2598,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>452</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2618,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2632,10 +1503,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2646,13 +1517,16 @@
       <c r="E47" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -2665,8 +1539,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8CAC2-07D1-4765-B6A0-45DC6ACF5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CE641C8D-E474-4205-860B-E3B9D8DB190A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
   <si>
     <t>Result</t>
   </si>
@@ -270,12 +270,178 @@
   </si>
   <si>
     <t>Thu Feb 06 13:12:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:49:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:50:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:51:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:52:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:53:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:54:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:55:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:56:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:16 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,19 +484,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,10 +513,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -385,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,21 +714,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -579,7 +745,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -631,29 +797,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+      <selection activeCell="C43" sqref="C43:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -698,7 +864,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -715,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -732,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -752,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -772,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -789,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -806,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -823,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -840,7 +1006,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -860,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -880,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -897,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -914,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -934,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -954,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -974,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -994,7 +1160,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1011,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1028,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1048,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1068,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1088,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1108,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1125,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1165,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1185,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1205,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1222,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1239,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1422,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1276,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1293,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1313,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1333,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1350,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1367,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1384,7 +1550,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1401,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1418,7 +1584,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1435,7 +1601,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1452,7 +1618,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1469,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1489,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1506,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1526,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1538,9 +1704,103 @@
         <v>17</v>
       </c>
     </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="185">
   <si>
     <t>Result</t>
   </si>
@@ -435,6 +435,162 @@
   </si>
   <si>
     <t>Tue Feb 11 19:57:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:16:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:17:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:18:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:21:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:22:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:24:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:30:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:31:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:32:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:32:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:33:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:37:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:37:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:14 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -864,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -881,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -898,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -918,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -938,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -955,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -972,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -989,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1006,7 +1162,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1046,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1063,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1080,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1100,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1120,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1140,7 +1296,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1160,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1177,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1194,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1214,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1234,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1254,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1311,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1331,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1351,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1371,7 +1527,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1388,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1405,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1422,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1442,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1459,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1479,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1499,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1516,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1533,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1550,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1567,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1584,7 +1740,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1601,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1618,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1635,7 +1791,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1655,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1672,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1692,7 +1848,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1709,7 +1865,7 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1726,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1743,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1763,7 +1919,7 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1783,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CE641C8D-E474-4205-860B-E3B9D8DB190A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EBE11E12-AD94-460E-ACDA-829C162A02E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="138">
   <si>
     <t>Result</t>
   </si>
@@ -131,466 +131,325 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Tue Jan 28 21:41:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:41:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:41:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:41:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:41:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:41:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:42:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:43:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:44:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:45:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:46:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:47:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:48:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:48:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:48:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:11:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:12:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:12:20 EST 2025</t>
-  </si>
-  <si>
     <t>Digital Advertising Gross Revenues</t>
   </si>
   <si>
     <t>PTE Composite</t>
   </si>
   <si>
+    <t>Mon Feb 24 22:16:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:17:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:18:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:20:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:21:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:22:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:24:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:25:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:26:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:27:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:30:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:31:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:32:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:32:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:33:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:34:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:35:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:36:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:37:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:37:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:14 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Tue Feb 11 19:48:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:49:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:50:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:51:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:52:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:53:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:54:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:55:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:56:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:57:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:57:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:16:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:17:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:18:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:21:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:22:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:24:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:30:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:31:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:32:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:32:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:33:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:37:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:37:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:14 EST 2025</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:42:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:43:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:44:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:46:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:46:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:46:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:47:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:48:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:49:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:52:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:53:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:54:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:56:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:59:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:00:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:01:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:01:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:04:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:05:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:06:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:08:06 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -963,22 +822,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,12 +857,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1015,12 +874,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1032,12 +891,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1049,12 +908,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1069,12 +928,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1089,12 +948,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1106,12 +965,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1123,12 +982,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1140,12 +999,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1157,12 +1016,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1177,12 +1036,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1197,12 +1056,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1214,12 +1073,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1231,12 +1090,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1251,12 +1110,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1271,12 +1130,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1291,12 +1150,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1311,12 +1170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1328,12 +1187,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1345,12 +1204,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1365,12 +1224,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1385,12 +1244,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1405,12 +1264,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1425,12 +1284,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1442,12 +1301,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1462,12 +1321,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1482,12 +1341,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1502,12 +1361,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1522,12 +1381,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1539,12 +1398,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1556,12 +1415,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1573,12 +1432,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1593,12 +1452,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1610,12 +1469,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1630,15 +1489,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -1650,12 +1509,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1667,12 +1526,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1684,12 +1543,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1701,12 +1560,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1718,12 +1577,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1735,12 +1594,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1752,12 +1611,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1769,12 +1628,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1786,12 +1645,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1806,12 +1665,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1823,12 +1682,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1843,12 +1702,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1860,12 +1719,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1874,15 +1733,15 @@
         <v>30</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1891,15 +1750,15 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1908,21 +1767,21 @@
         <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1934,12 +1793,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1948,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINandFEINSSNlessThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EBE11E12-AD94-460E-ACDA-829C162A02E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6E44AD9A-353F-4DCD-94CB-1FDE7D627846}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-3945"/>
+    <workbookView windowHeight="15675" windowWidth="28995" xWindow="14303" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-2010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -137,319 +137,319 @@
     <t>PTE Composite</t>
   </si>
   <si>
-    <t>Mon Feb 24 22:16:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:17:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:18:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:20:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:21:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:22:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:24:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:25:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:26:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:27:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:28:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:30:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:31:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:32:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:32:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:33:55 EST 2025</t>
-  </si>
-  <si>
     <t>Mon Feb 24 22:34:06 EST 2025</t>
   </si>
   <si>
-    <t>Mon Feb 24 22:34:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:34:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:35:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:36:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:37:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:37:52 EST 2025</t>
-  </si>
-  <si>
     <t>Mon Feb 24 22:38:03 EST 2025</t>
   </si>
   <si>
-    <t>Mon Feb 24 22:38:14 EST 2025</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:43:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:44:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:46:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:46:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:47:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:48:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:49:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:51:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:53:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:54:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:56:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:57:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:59:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:00:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:01:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:01:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:02:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:03:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:04:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:05:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:06:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:08:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:18:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:19:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:20:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:21:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:22:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:22:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:23:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:23:16 EST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:42:30 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:43:42 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:44:55 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:46:08 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:46:14 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:46:20 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:47:30 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:48:40 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:49:50 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:01 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:07 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:13 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:19 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:25 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:30 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:36 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:42 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:47 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:51:53 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:52:32 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:53:45 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:54:57 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:56:10 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:23 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:29 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:35 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:41 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:47 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:57:53 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 15:59:02 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:00:13 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:01:23 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:01:29 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:02:39 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:02:45 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:02:50 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:02:57 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:02 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:08 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:14 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:19 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:25 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:30 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:36 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:42 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:03:48 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:04:28 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:05:40 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:06:53 EDT 2025</t>
-  </si>
-  <si>
-    <t>Sat Oct 04 16:08:06 EDT 2025</t>
+    <t>Fri Nov 07 11:24:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:24:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:24:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:24:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:24:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:25:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:26:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:27:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:28:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 11:29:38 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
@@ -1494,10 +1494,10 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>135</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>136</v>
@@ -1778,10 +1778,10 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
